--- a/요청포맷_2차발송본.xlsx
+++ b/요청포맷_2차발송본.xlsx
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Omniglot Dataset
 * N-way K-shot Dataset 화면출력을 위한 json(3세부 요청파일)
 - nwaykshot_omniglot (-&gt; /dataset/data/ui_output/maml/step2/omniglot/nwaykshot_omniglot.json)
@@ -264,10 +260,6 @@
   </si>
   <si>
     <t>10~3분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"># 참고 : Step2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -981,6 +973,17 @@
 num_steps_validation : Validation set에 대한  inner loop gradient update step 횟수
 save_after_epochs : 모델 저장 주기(1인 경우 매 epoch마다 저장)
 report_validation_frequency : validation set에 대한 evaluation 결과 프린트 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 이전 발송 코드에서 Step2의 dataset/data_generator.py 의 104번 줄 아래 에러체크코드 추가됨
+        # Error check
+        assert steps_per_epoch != 0,  "The number of classes that can be drawn is insufficient, Please reduce meta_batch_size or N."
+# maml.py 코드 변경(predict 코드 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1873,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1887,7 +1890,7 @@
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="56" customWidth="1"/>
+    <col min="10" max="10" width="113.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
@@ -1933,7 +1936,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
@@ -1948,7 +1951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>17</v>
@@ -1986,22 +1989,22 @@
         <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -2016,46 +2019,46 @@
         <v>48</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -2063,9 +2066,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J10" t="s">
-        <v>40</v>
+    <row r="10" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
